--- a/medicine/Sexualité et sexologie/Féminisme_pro-sexe/Féminisme_pro-sexe.xlsx
+++ b/medicine/Sexualité et sexologie/Féminisme_pro-sexe/Féminisme_pro-sexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9minisme_pro-sexe</t>
+          <t>Féminisme_pro-sexe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le féminisme pro-sexe est un courant du féminisme, issu du milieu queer, qui apparaît dans les années 1980 aux États-Unis et qui voit en la sexualité un domaine qui doit être investi par les femmes et les minorités sexuelles. En faisant « du corps, du plaisir et du travail sexuel des outils politiques dont les femmes doivent s'emparer[1] », il s'oppose au courant abolitionniste du féminisme radical[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le féminisme pro-sexe est un courant du féminisme, issu du milieu queer, qui apparaît dans les années 1980 aux États-Unis et qui voit en la sexualité un domaine qui doit être investi par les femmes et les minorités sexuelles. En faisant « du corps, du plaisir et du travail sexuel des outils politiques dont les femmes doivent s'emparer », il s'oppose au courant abolitionniste du féminisme radical,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9minisme_pro-sexe</t>
+          <t>Féminisme_pro-sexe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression « féminisme pro-sexe » apparaît pour la première fois sous la plume de la journaliste et militante féministe américaine Ellen Willis, dans Lust Horizons: Is the Women's Movement Pro-Sex?, publié en 1981, un essai dans lequel Willis plaide pour un féminisme caractérisé par une pleine liberté sexuelle, tout en réfutant la condamnation de la pornographie[4]. Ce choix terminologique constitue d'emblée une réponse, une provocation à l'encontre du mouvement dit de « féminisme conservateur ». Son apparition, au début des années 1980, deux décennies après la révolution sexuelle, fait suite aux propositions des féministes dites « abolitionnistes » dont les figures de proue sont Catherine MacKinnon et André Dworkin qui militaient pour la suppression de la pornographie, affirmant que celle-ci constitue un outil de la domination patriarcale pour perpétuer l'asservissement des femmes. En réponse à ce mouvement, fustigé pour réprimer la sexualité féminine, un affrontement appelé « Sex wars », symbole de la troisième vague féministe, éclate et met en lumière une scission profonde au sein du mouvement de lutte pour l'émancipation des femmes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression « féminisme pro-sexe » apparaît pour la première fois sous la plume de la journaliste et militante féministe américaine Ellen Willis, dans Lust Horizons: Is the Women's Movement Pro-Sex?, publié en 1981, un essai dans lequel Willis plaide pour un féminisme caractérisé par une pleine liberté sexuelle, tout en réfutant la condamnation de la pornographie. Ce choix terminologique constitue d'emblée une réponse, une provocation à l'encontre du mouvement dit de « féminisme conservateur ». Son apparition, au début des années 1980, deux décennies après la révolution sexuelle, fait suite aux propositions des féministes dites « abolitionnistes » dont les figures de proue sont Catherine MacKinnon et André Dworkin qui militaient pour la suppression de la pornographie, affirmant que celle-ci constitue un outil de la domination patriarcale pour perpétuer l'asservissement des femmes. En réponse à ce mouvement, fustigé pour réprimer la sexualité féminine, un affrontement appelé « Sex wars », symbole de la troisième vague féministe, éclate et met en lumière une scission profonde au sein du mouvement de lutte pour l'émancipation des femmes.
 Les féministes « pro-sexe », à l'inverse de leurs homologues abolitionnistes, considèrent la pornographie  comme un outil dans la lutte pour l'émancipation, aussi bien dans le domaine politique que social. En effet, c'est en affrontant les abolitionnistes voulant à tout prix la suppression de la pornographie que la question de la représentation sexuelle va très vite alimenter le débat politique. D'abord prises de court par la position conservatrice, adoptée dans un premier temps puis jugée anticonstitutionnelle car remettant en cause le Premier amendement sur la liberté d'expression de la constitution américaine, les pro-sexes prennent l'avantage sur les abolitionnistes dont le discours est rendu de moins en moins audible aux États-Unis[réf. nécessaire].
 Alors que les Américains avaient soulevé le débat vingt ans auparavant, c'est seulement au début du XXIe siècle qu'il arrive en France, notamment avec la figure d'Ovidie, une ancienne actrice devenue réalisatrice de films X qui publie Porno Manifesto en 2001. La pornographie, en devenant outil politique pour la défense des droits des femmes à disposer librement de leur corps, connait des droits de plus en plus reconnus chez les travailleurs du sexe[Lesquels ?]. En 2005, notamment, l'Europe signe la Déclaration des droits des travailleurs du sexe. Cette légitimation de l'activité sexuelle comme travail à l'échelle européenne constitue une ouverture considérable pour ces derniers qui dès lors sont imposés fiscalement et doivent par conséquent pouvoir prétendre à des aides sociales. Aussi, cette reconnaissance au sein des instances gouvernementales s'accompagne d'une vague de médiatisation des travailleurs du sexe par le biais d'émissions télévisées ou radiophoniques où ces derniers défendent des problématiques autour de thématiques en rapport à la sexualité.
 Le combat des féministes pro-sexe qui ont défendu une vision positive de la pornographie par la valorisation du statut de la femme comme être enclin à des désirs sexuels a soulevé nombreux tabous, préjugés, et discrimination touchant de nombreuses minorités. Grâce à ces luttes qui ont mis de plus en plus à mal la morale religieuse, les femmes peuvent assumer librement leur sexualité sans s'exclure de la société et de la politique.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9minisme_pro-sexe</t>
+          <t>Féminisme_pro-sexe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prostitution
-Le féminisme pro-sexe réfute les positions abolitionnistes, prohibitionnistes, et les « décisions politiques qui consistent à victimiser les prostituées », car, comme le déclare Virginie Despentes[5], elles ne servent qu'à « marquer le désir masculin, le confiner dans son ignominie. Qu'il jouisse en payant s'il le veut, mais alors qu'il côtoie la pourriture, la honte, la misère. » Il envisage au contraire une redéfinition du « pacte de prostitution » vers un « contrat intersexe sain et clair », celui de la réappropriation politique et économique de la prostitution par les femmes : « le monde économique aujourd'hui étant ce qu'il est, c'est-à-dire une guerre froide et impitoyable, interdire l'exercice de la prostitution dans un cadre légal adéquat, c'est interdire spécifiquement à la classe féminine de s'enrichir, de tirer profit de sa propre stigmatisation. » Dès lors, puisqu'« affirmer que la prostitution est une "violence faite aux femmes" »  serait un moyen de faire oublier que « c'est le mariage qui est une violence faite aux femmes, et d'une manière générale, les choses telles qu'elles les endurent », le mouvement pro-sexe souligne que « la sexualité masculine en elle-même ne constitue pas une violence sur les femmes, si elles sont consentantes et bien rémunérées »  et que « c'est le contrôle exercé sur les femmes qui est violent, cette faculté de décider à leur place ce qui est digne ou ce qui ne l'est pas » .
-Pornographie
-L'idéologie pro-sexe s'oppose au contrôle patriarcal et à la masculinisation de l'imagerie pornographique, et lui oppose, une esthétique qui explore les aspects de la sexualité féminine. 
-Elle réfute également les discours qui voient en la pornographie une exploitation du corps : « Dans le discours anti-pornographique, on se perd rapidement : au fait, qui est la victime ? Les femmes qui perdent toute dignité du moment qu'on les voit sucer une bite ? Ou les hommes, trop faibles et inaptes à maîtriser leur envie de voir du sexe, et de comprendre qu'il s'agit uniquement d'une représentation[6] ? » et optent au contraire pour l'utilisation de la féminité comme « arme » : « L'idée que la pornographie ne s'articule qu'autour du phallus est étonnante. Ce sont des corps de femmes que l'on voit. Et souvent des corps sublimés. Quoi de plus troublant qu'une hardeuse ? On n'est plus ici dans le domaine de la bunny girl, la fille d'à côté, qui ne fait pas peur, qui est facile d'accès. La hardeuse, c'est l'affranchie, la femme fatale, celle qui attire tous les regards et provoque forcément un trouble, qu'il s'agisse de désir ou de rejet. Alors pourquoi plaint-on si volontiers ces femmes qui ont tous les attributs de la bombe sexuelle[6] ? »
-Wendy McElroy, dans XXX : A woman's right to pornography, soutient également que « la pornographie est possible, personnellement et politiquement pour les femmes. Elle accuse aussi le féminisme puritain de détruire la liberté des femmes à disposer de leur corps et de leur sexe comme elles l'entendent, et d'imposer une idéologie sexuellement correcte dissimulée derrière de fausses préoccupations de bien et de justice[7]. »
-Certaines cinéastes participent au mouvement pro-sexe, telles Nina Hartley, réalisatrice de films pornographiques à caractère éducatif et Candida Royalle, fondatrice de Femmes Productions, qui a pour objectif de produire des films pornographiques égalitaires et non sexistes.
+          <t>Prostitution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le féminisme pro-sexe réfute les positions abolitionnistes, prohibitionnistes, et les « décisions politiques qui consistent à victimiser les prostituées », car, comme le déclare Virginie Despentes, elles ne servent qu'à « marquer le désir masculin, le confiner dans son ignominie. Qu'il jouisse en payant s'il le veut, mais alors qu'il côtoie la pourriture, la honte, la misère. » Il envisage au contraire une redéfinition du « pacte de prostitution » vers un « contrat intersexe sain et clair », celui de la réappropriation politique et économique de la prostitution par les femmes : « le monde économique aujourd'hui étant ce qu'il est, c'est-à-dire une guerre froide et impitoyable, interdire l'exercice de la prostitution dans un cadre légal adéquat, c'est interdire spécifiquement à la classe féminine de s'enrichir, de tirer profit de sa propre stigmatisation. » Dès lors, puisqu'« affirmer que la prostitution est une "violence faite aux femmes" »  serait un moyen de faire oublier que « c'est le mariage qui est une violence faite aux femmes, et d'une manière générale, les choses telles qu'elles les endurent », le mouvement pro-sexe souligne que « la sexualité masculine en elle-même ne constitue pas une violence sur les femmes, si elles sont consentantes et bien rémunérées »  et que « c'est le contrôle exercé sur les femmes qui est violent, cette faculté de décider à leur place ce qui est digne ou ce qui ne l'est pas » .
 </t>
         </is>
       </c>
@@ -564,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9minisme_pro-sexe</t>
+          <t>Féminisme_pro-sexe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,15 +593,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Critiques</t>
+          <t>Thèmes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le féminisme pro-sexe est critiqué pour sa position jugée faussement transgressive qui, en caricaturant l'histoire du féminisme, chercherait à ringardiser les féministes dites « traditionnelles » : 
-« Pro-sexe ? si l'on s'affuble d'un tel qualificatif, c'est pour donner à penser que les autres sont anti-sexe. On en revient à la ringardisation : en fait les féministes qui se situent dans la lignée des années 1970 seraient quasiment institutionnalisées, bourgeoises, dans les normes, propres sur elles et ayant perdu leur caractère subversif. Sauf que dans la vraie vie, une seule question vaut la peine d'être posée : qui dérange ? Qui remet en cause les rapports de domination ? Une intervention subversive uniquement par la sexualité est-elle viable[8] ? »
-En outre, les opposants au féminisme pro-sexe mettent en exergue la compromission de ces dernières dans l'industrie du sexe et leur contribution à la marchandisation de la sexualité :
-« Les féministes pro-sexe ne risquent-elles pas d'être récupérées, comme cela semble être le cas aux États-Unis, par le marché du sexe, qui comme tout autre marché, doit engendrer un profit maximum et apporte des bénéfices considérables ? Le sexe est ici consommé comme une marchandise, tout est possible du moment que le tiroir-caisse fonctionne. Est-ce le but à atteindre[8] ? »
+          <t>Pornographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idéologie pro-sexe s'oppose au contrôle patriarcal et à la masculinisation de l'imagerie pornographique, et lui oppose, une esthétique qui explore les aspects de la sexualité féminine. 
+Elle réfute également les discours qui voient en la pornographie une exploitation du corps : « Dans le discours anti-pornographique, on se perd rapidement : au fait, qui est la victime ? Les femmes qui perdent toute dignité du moment qu'on les voit sucer une bite ? Ou les hommes, trop faibles et inaptes à maîtriser leur envie de voir du sexe, et de comprendre qu'il s'agit uniquement d'une représentation ? » et optent au contraire pour l'utilisation de la féminité comme « arme » : « L'idée que la pornographie ne s'articule qu'autour du phallus est étonnante. Ce sont des corps de femmes que l'on voit. Et souvent des corps sublimés. Quoi de plus troublant qu'une hardeuse ? On n'est plus ici dans le domaine de la bunny girl, la fille d'à côté, qui ne fait pas peur, qui est facile d'accès. La hardeuse, c'est l'affranchie, la femme fatale, celle qui attire tous les regards et provoque forcément un trouble, qu'il s'agisse de désir ou de rejet. Alors pourquoi plaint-on si volontiers ces femmes qui ont tous les attributs de la bombe sexuelle ? »
+Wendy McElroy, dans XXX : A woman's right to pornography, soutient également que « la pornographie est possible, personnellement et politiquement pour les femmes. Elle accuse aussi le féminisme puritain de détruire la liberté des femmes à disposer de leur corps et de leur sexe comme elles l'entendent, et d'imposer une idéologie sexuellement correcte dissimulée derrière de fausses préoccupations de bien et de justice. »
+Certaines cinéastes participent au mouvement pro-sexe, telles Nina Hartley, réalisatrice de films pornographiques à caractère éducatif et Candida Royalle, fondatrice de Femmes Productions, qui a pour objectif de produire des films pornographiques égalitaires et non sexistes.
 </t>
         </is>
       </c>
@@ -598,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9minisme_pro-sexe</t>
+          <t>Féminisme_pro-sexe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,14 +633,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le féminisme pro-sexe est critiqué pour sa position jugée faussement transgressive qui, en caricaturant l'histoire du féminisme, chercherait à ringardiser les féministes dites « traditionnelles » : 
+« Pro-sexe ? si l'on s'affuble d'un tel qualificatif, c'est pour donner à penser que les autres sont anti-sexe. On en revient à la ringardisation : en fait les féministes qui se situent dans la lignée des années 1970 seraient quasiment institutionnalisées, bourgeoises, dans les normes, propres sur elles et ayant perdu leur caractère subversif. Sauf que dans la vraie vie, une seule question vaut la peine d'être posée : qui dérange ? Qui remet en cause les rapports de domination ? Une intervention subversive uniquement par la sexualité est-elle viable ? »
+En outre, les opposants au féminisme pro-sexe mettent en exergue la compromission de ces dernières dans l'industrie du sexe et leur contribution à la marchandisation de la sexualité :
+« Les féministes pro-sexe ne risquent-elles pas d'être récupérées, comme cela semble être le cas aux États-Unis, par le marché du sexe, qui comme tout autre marché, doit engendrer un profit maximum et apporte des bénéfices considérables ? Le sexe est ici consommé comme une marchandise, tout est possible du moment que le tiroir-caisse fonctionne. Est-ce le but à atteindre ? »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture pro-sexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Littérature
-Essais
-(en) Pat Califia, Public Sex : The culture of Radical Sex, Cleis Press, 1994.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Pat Califia, Public Sex : The culture of Radical Sex, Cleis Press, 1994.
 (en) Wendy McElroy, XXX : A Woman's Right to Pornography, Prelude Press, 1995.
 (en) Carol Queen, Real, Live, Nude Girl : Chronicles of Sex-Positive Culture, Cleis Press, 1997.
 (en) Drucilla Cornell, Feminism and Pornography, Oxford University Press, 2000.
@@ -630,46 +694,307 @@
 Marcela Iacub, Catherine Millet et Catherine Robbe-Grillet, Ni coupables ni victimes : libres de se prostituer, tribune parue dans Le Monde, 2003.
 (en) Scarlot Harlot, Unrepentant Whore : The Collected Works of Scarlot Harlot, Last Gasp, 2004.
 Virginie Despentes, King Kong Théorie, Grasset, 2006.
-Ariel Levy, Les Nouvelles salopes. Les femmes et l'essor de la culture porno, éd.Tournon, 2007[9].
+Ariel Levy, Les Nouvelles salopes. Les femmes et l'essor de la culture porno, éd.Tournon, 2007.
 Maîtresse Nikita et Thierry Schaffauser, Fières d'être putes, éd. L'Altiplano, 2007.
 Beatriz Preciado, Testo Junkie : sexe, drogue et biopolitique, Grasset, 2008.
 Wendy Delorme, Insurrection ! En territoire sexuel, Au Diable Vauvert, 2009.
 Catherine François, Sexe, prostitution et contes de fées. Regard complice sur la liberté sexuelle, éditions Luc Pire, 2011.
-David Courbet, Féminismes et pornographie, La Musardine, 2012.
-Romans
-Virginie Despentes, Baise-moi, Florent Massot, 1994.
-Coralie Trinh Thi, Betty Monde, Au Diable Vauvert, 2002.
-Témoignages
-(en) Norma J. Almodovar, Cop to Call Girl: Why I Left the LAPD to Make an Honest Living As a Beverly Hills Prostitue, Simon &amp; Schuster, 1993.
-Claire Carthonnet, J'ai des choses à vous dire. Une prostituée témoigne, Robert Laffont, 2003[10].
+David Courbet, Féminismes et pornographie, La Musardine, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Virginie Despentes, Baise-moi, Florent Massot, 1994.
+Coralie Trinh Thi, Betty Monde, Au Diable Vauvert, 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Témoignages</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Norma J. Almodovar, Cop to Call Girl: Why I Left the LAPD to Make an Honest Living As a Beverly Hills Prostitue, Simon &amp; Schuster, 1993.
+Claire Carthonnet, J'ai des choses à vous dire. Une prostituée témoigne, Robert Laffont, 2003.
 Catherine François, Paroles de prostituées, éditions Luc Pire, 2001.
 Lydia Lunch, Paradoxia. Journal d'une prédatrice, La Musardine, 1998.
 Nina Roberts J'assume, éd. Scali, 2005.
-(en) Annie Sprinkle, Hardcore from the Heart. The Pleasures, Profits and Politics of Sex in Performance, éd. Continuum, 2001.
-Anthologie
-(en) Carole S. Vance (dir.), Pleasure and Danger. Exploring Female Sexuality, Pandora Press, 1993.
-Cinéma
-Fictions
-Catherine Breillat, Une vraie jeune fille, 1975.
+(en) Annie Sprinkle, Hardcore from the Heart. The Pleasures, Profits and Politics of Sex in Performance, éd. Continuum, 2001.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Anthologie</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Carole S. Vance (dir.), Pleasure and Danger. Exploring Female Sexuality, Pandora Press, 1993.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Catherine Breillat, Une vraie jeune fille, 1975.
 Virginie Despentes, Baise-moi, avec Coralie Trinh Thi, 2000.
-Émilie Jouvet, One Night Stand, (Pour une nuit), 2006.
-Documentaires
-Virginie Despentes, Mutantes (Féminisme Porno Punk), 2009[11].
-Fake Orgasm[12] de Lazlo Pearlman[13]
+Émilie Jouvet, One Night Stand, (Pour une nuit), 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Virginie Despentes, Mutantes (Féminisme Porno Punk), 2009.
+Fake Orgasm de Lazlo Pearlman
 Ovidie, A quoi rêvent les jeunes filles ?, 2014
 Émilie Jouvet, Too Much Pussy ! Feminist Sluts, A Queer X Show, 2009.
-Much More Pussy !, version pornographique.
-Pornographie
-Annie Sprinkle
+Much More Pussy !, version pornographique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pornographie</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Annie Sprinkle
 Ovidie
 Judy Minx
 Candida Royalle
 Jackie Strano
 Erika Lust
-Tristan Taormino
-Associations
-Les Putes, un « groupe activiste non mixte, c'est-à-dire composé uniquement de putes, femmes et transpédégouines, dont le but est l'auto support et la lutte contre la putophobie[14]. »
-Syndicat du travail sexuel, « un syndicat autogéré qui défend les droits des travailleurs du sexe, c'est-à-dire principalement des prostituées, mais aussi des escort girls/boys, des acteurs et actrice pornographiques, des opérateurs de téléphone / webcam rose, des masseurs érotiques, des dominatrices professionnelles, des hôtesses de bar, et des assistants sexuels[15]. »</t>
+Tristan Taormino</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Féminisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9minisme_pro-sexe</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture pro-sexe</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Associations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les Putes, un « groupe activiste non mixte, c'est-à-dire composé uniquement de putes, femmes et transpédégouines, dont le but est l'auto support et la lutte contre la putophobie. »
+Syndicat du travail sexuel, « un syndicat autogéré qui défend les droits des travailleurs du sexe, c'est-à-dire principalement des prostituées, mais aussi des escort girls/boys, des acteurs et actrice pornographiques, des opérateurs de téléphone / webcam rose, des masseurs érotiques, des dominatrices professionnelles, des hôtesses de bar, et des assistants sexuels. »</t>
         </is>
       </c>
     </row>
